--- a/자유수강권/기타교실(재료).xlsx
+++ b/자유수강권/기타교실(재료).xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="37">
   <si>
     <t>주야</t>
   </si>
@@ -119,6 +119,12 @@
   </si>
   <si>
     <t>김시은</t>
+  </si>
+  <si>
+    <t>5반</t>
+  </si>
+  <si>
+    <t>류시연</t>
   </si>
 </sst>
 </file>
@@ -487,7 +493,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H10"/>
+  <dimension ref="A1:H11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -755,6 +761,32 @@
         <v>13</v>
       </c>
       <c r="H10" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" ht="13.5">
+      <c r="A11" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="F11" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="G11" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="H11" s="1" t="s">
         <v>13</v>
       </c>
     </row>
